--- a/Data/Output/Rezultat_verificareFacturi_15.03.2024.xlsx
+++ b/Data/Output/Rezultat_verificareFacturi_15.03.2024.xlsx
@@ -46,7 +46,7 @@
     <x:t>10.10.2021</x:t>
   </x:si>
   <x:si>
-    <x:t>Nume_client diferit pe factura, Total de plata diferit</x:t>
+    <x:t>Total de plata diferit</x:t>
   </x:si>
   <x:si>
     <x:t>SC GRM SRL</x:t>
